--- a/Demography/Demography_2021.xlsx
+++ b/Demography/Demography_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>SL. NO.</t>
   </si>
@@ -745,11 +745,11 @@
     </r>
   </si>
   <si>
-    <t>Dadra and Nagar Haveli</t>
-  </si>
-  <si>
-    <r>
-      <t>491 km</t>
+    <t>Dadra and Nagar Haveli Daman and Diu</t>
+  </si>
+  <si>
+    <r>
+      <t>603 km</t>
     </r>
     <r>
       <rPr>
@@ -771,7 +771,7 @@
     </r>
   </si>
   <si>
-    <t>698/km2 (1810/sq mi)</t>
+    <t>973/km2 (1810/sq mi)</t>
   </si>
   <si>
     <t>Ladakh</t>
@@ -801,35 +801,6 @@
       </rPr>
       <t xml:space="preserve"> (7.3/sq mi)</t>
     </r>
-  </si>
-  <si>
-    <t>Daman and Diu</t>
-  </si>
-  <si>
-    <r>
-      <t>112 km</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (43 sq mi)</t>
-    </r>
-  </si>
-  <si>
-    <t>2169/km2 (5620/sq mi)</t>
   </si>
   <si>
     <t>Lakshadweep</t>
@@ -1119,8 +1090,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E38" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:E38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E37" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:E37"/>
   <tableColumns count="5">
     <tableColumn name="SL. NO." id="1"/>
     <tableColumn name="STATE_UT" id="2"/>
@@ -1420,7 +1391,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1722,7 +1693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.600000000000005" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1739,7 +1710,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.600000000000005" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1756,7 +1727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.600000000000005" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2011,7 +1982,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.8" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2019,7 +1990,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="8">
-        <v>343709</v>
+        <v>586956</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>104</v>
@@ -2047,13 +2018,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.600000000000005" customFormat="1" s="1">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="8">
-        <v>243247</v>
+        <v>64473</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>110</v>
@@ -2062,38 +2033,21 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.600000000000005" customFormat="1" s="1">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="8">
-        <v>64473</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="C38" s="10">
+        <v>1210569573</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A39" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="10">
-        <v>1210569573</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
